--- a/Export/Fundamentals_Restatement_Diff_Reports.xlsx
+++ b/Export/Fundamentals_Restatement_Diff_Reports.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="273">
   <si>
     <t>gvkey</t>
   </si>
@@ -821,7 +821,19 @@
     <t>IVFH</t>
   </si>
   <si>
-    <t>count_of_restatements</t>
+    <t>rest_count</t>
+  </si>
+  <si>
+    <t>rest_sum_diff</t>
+  </si>
+  <si>
+    <t>rest_count_of_diffs</t>
+  </si>
+  <si>
+    <t>rest_a_sum_diff</t>
+  </si>
+  <si>
+    <t>rest_a_count_of_diffs</t>
   </si>
 </sst>
 </file>
@@ -39319,16 +39331,16 @@
         <v>268</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>269</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>23</v>
+        <v>270</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>22</v>
+        <v>271</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>24</v>
+        <v>272</v>
       </c>
     </row>
     <row r="2" spans="1:7">
